--- a/data/Areas_in_zones.xlsx
+++ b/data/Areas_in_zones.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="131">
   <si>
     <t>rccg_thewealthyplace@yahoo.com</t>
   </si>
@@ -411,13 +411,19 @@
   </si>
   <si>
     <t>ZONES CODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,6 +451,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -479,10 +493,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -490,8 +505,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -772,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -812,8 +829,12 @@
       <c r="C2" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -828,7 +849,9 @@
       <c r="D3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -858,9 +881,11 @@
         <v>106</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -875,7 +900,9 @@
       <c r="D6" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
@@ -907,7 +934,9 @@
       <c r="D8" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
@@ -920,9 +949,11 @@
         <v>92</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
@@ -937,7 +968,9 @@
       <c r="D10" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
@@ -966,8 +999,12 @@
       <c r="C12" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
@@ -982,7 +1019,9 @@
       <c r="D13" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
@@ -1045,8 +1084,12 @@
       <c r="C17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
@@ -1061,7 +1104,9 @@
       <c r="D18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
@@ -1076,7 +1121,9 @@
       <c r="D19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
@@ -1091,7 +1138,9 @@
       <c r="D20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
@@ -1121,9 +1170,11 @@
         <v>48</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
@@ -1187,9 +1238,11 @@
         <v>32</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
@@ -1219,9 +1272,11 @@
         <v>22</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
@@ -1236,7 +1291,9 @@
       <c r="D29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
@@ -1283,9 +1340,11 @@
         <v>11</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
@@ -1317,7 +1376,9 @@
       <c r="D34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
@@ -1344,6 +1405,14 @@
       <c r="E36" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1"/>
+    <hyperlink ref="E9" r:id="rId2"/>
+    <hyperlink ref="E22" r:id="rId3"/>
+    <hyperlink ref="E26" r:id="rId4"/>
+    <hyperlink ref="E28" r:id="rId5"/>
+    <hyperlink ref="E32" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Areas_in_zones.xlsx
+++ b/data/Areas_in_zones.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="132">
   <si>
     <t>rccg_thewealthyplace@yahoo.com</t>
   </si>
@@ -417,13 +417,16 @@
   </si>
   <si>
     <t xml:space="preserve">  -</t>
+  </si>
+  <si>
+    <t>S/N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,6 +459,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -497,7 +508,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -506,6 +517,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -787,631 +799,736 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.36328125" customWidth="1"/>
-    <col min="2" max="2" width="32.7265625" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" customWidth="1"/>
-    <col min="4" max="4" width="83.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.36328125" customWidth="1"/>
+    <col min="3" max="3" width="32.7265625" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" customWidth="1"/>
+    <col min="5" max="5" width="83.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="F8" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="F10" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="E12" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="F12" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="F13" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="E17" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="F17" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="F18" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="F19" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+      <c r="F29" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+      <c r="F34" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="1"/>
+    <row r="36" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1"/>
-    <hyperlink ref="E9" r:id="rId2"/>
-    <hyperlink ref="E22" r:id="rId3"/>
-    <hyperlink ref="E26" r:id="rId4"/>
-    <hyperlink ref="E28" r:id="rId5"/>
-    <hyperlink ref="E32" r:id="rId6"/>
+    <hyperlink ref="F5" r:id="rId1"/>
+    <hyperlink ref="F9" r:id="rId2"/>
+    <hyperlink ref="F22" r:id="rId3"/>
+    <hyperlink ref="F26" r:id="rId4"/>
+    <hyperlink ref="F28" r:id="rId5"/>
+    <hyperlink ref="F32" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Areas_in_zones.xlsx
+++ b/data/Areas_in_zones.xlsx
@@ -254,9 +254,6 @@
     <t>rccghouseofjoy247@gmail.com</t>
   </si>
   <si>
-    <t>21, ASSOCIATION WAY, YAKOYO, OJODU, LAGOS.</t>
-  </si>
-  <si>
     <t>08024582074</t>
   </si>
   <si>
@@ -269,9 +266,6 @@
     <t>opemike@yahoo.com</t>
   </si>
   <si>
-    <t>86, FREEMAN STREET, LAGOS ISLAND, LAGOS</t>
-  </si>
-  <si>
     <t>08026586933</t>
   </si>
   <si>
@@ -420,6 +414,12 @@
   </si>
   <si>
     <t>S/N</t>
+  </si>
+  <si>
+    <t>86, Freeman Street, Lagos Island, Lagos</t>
+  </si>
+  <si>
+    <t>21, Association Way, Yakoyo, Ojodu, Lagos.</t>
   </si>
 </sst>
 </file>
@@ -517,7 +517,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -801,12 +803,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="3.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.36328125" customWidth="1"/>
     <col min="3" max="3" width="32.7265625" customWidth="1"/>
     <col min="4" max="4" width="14.453125" customWidth="1"/>
@@ -816,22 +819,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
@@ -839,19 +842,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -859,19 +862,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -879,19 +882,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
@@ -899,19 +902,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -919,19 +922,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -939,19 +942,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -959,19 +962,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
@@ -979,19 +982,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -999,19 +1002,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1019,19 +1022,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
@@ -1039,19 +1042,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1059,19 +1062,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1079,19 +1082,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1099,16 +1102,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>75</v>
@@ -1148,10 +1151,10 @@
         <v>66</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1171,7 +1174,7 @@
         <v>65</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1191,7 +1194,7 @@
         <v>61</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1211,7 +1214,7 @@
         <v>57</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1248,7 +1251,7 @@
         <v>48</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>46</v>
@@ -1328,7 +1331,7 @@
         <v>32</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>30</v>
@@ -1368,7 +1371,7 @@
         <v>22</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>20</v>
@@ -1391,7 +1394,7 @@
         <v>25</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -1448,7 +1451,7 @@
         <v>11</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>9</v>
@@ -1491,7 +1494,7 @@
         <v>5</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
